--- a/Outputs/AddersReport.xlsx
+++ b/Outputs/AddersReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Collage\VLSI\Project\Adders-Mania\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE698A8B-B171-4813-A8ED-BE837BA90BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99BE7F7-F489-4CAB-9AF9-43F154318C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF58B896"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -117,10 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +429,7 @@
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,7 +440,7 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -446,7 +463,7 @@
       <c r="C2">
         <v>1.68</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>1.69</v>
       </c>
       <c r="E2">
@@ -469,7 +486,7 @@
       <c r="C3">
         <v>12.42</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>9.27</v>
       </c>
       <c r="E3">
@@ -489,7 +506,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -512,7 +529,7 @@
       <c r="C5">
         <v>1309.1711230000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1213.703757</v>
       </c>
       <c r="E5">
@@ -535,18 +552,24 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
